--- a/data/raw-variant-data.xlsx
+++ b/data/raw-variant-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AsmusAL\Documents\MetC_Locals\MTS\covid-poops\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://metcmn-my.sharepoint.com/personal/steve_balogh_metc_state_mn_us/Documents/DATA/XLS/1-SARS-CoV-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7A61F54-57AB-46E6-8417-28E6E4472ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA153AAD-0E84-4B2A-B45A-20B13F411053}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{007CBEFE-069F-4D8B-BDD1-9182796C1C3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49734A0C-BF38-4361-A412-F33311F92D83}"/>
   </bookViews>
   <sheets>
     <sheet name="big summary" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="197">
   <si>
     <t>N501Y</t>
   </si>
@@ -603,6 +600,24 @@
     <t>1182</t>
   </si>
   <si>
+    <t>1194</t>
+  </si>
+  <si>
+    <t>1203</t>
+  </si>
+  <si>
+    <t>1213</t>
+  </si>
+  <si>
+    <t>1224</t>
+  </si>
+  <si>
+    <t>1232</t>
+  </si>
+  <si>
+    <t>1246</t>
+  </si>
+  <si>
     <t>USE SAMPLE START DATE ONLY!</t>
   </si>
   <si>
@@ -778,7 +793,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -955,11 +970,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{F148BE75-E02A-4371-A915-0C2C8C370412}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{D7DF96D6-B2D8-411F-9A52-FC9CFD9054D5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1758,7 +1774,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-814A-4C79-8EB7-B0450D48CE52}"/>
+              <c16:uniqueId val="{00000000-107F-4D23-B0AB-731967C4571A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2268,7 +2284,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-814A-4C79-8EB7-B0450D48CE52}"/>
+              <c16:uniqueId val="{00000001-107F-4D23-B0AB-731967C4571A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3247,7 +3263,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E6C9-4348-8058-A0BC5DFB91BB}"/>
+              <c16:uniqueId val="{00000000-9E0B-485B-A39D-C9027782E716}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3758,7 +3774,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E6C9-4348-8058-A0BC5DFB91BB}"/>
+              <c16:uniqueId val="{00000001-9E0B-485B-A39D-C9027782E716}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4738,7 +4754,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-80B9-47BE-9675-8616BAA80D08}"/>
+              <c16:uniqueId val="{00000000-6E40-4213-A2DB-9E6ED9B36FB4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5249,7 +5265,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-80B9-47BE-9675-8616BAA80D08}"/>
+              <c16:uniqueId val="{00000001-6E40-4213-A2DB-9E6ED9B36FB4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6299,7 +6315,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-000F-4819-B560-6721E047DD90}"/>
+              <c16:uniqueId val="{00000000-CBC3-4F56-AD76-B21081FB88B2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6821,7 +6837,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-000F-4819-B560-6721E047DD90}"/>
+              <c16:uniqueId val="{00000001-CBC3-4F56-AD76-B21081FB88B2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7916,7 +7932,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C5D7-464D-9C72-E317FA08A9B7}"/>
+              <c16:uniqueId val="{00000000-83ED-42A2-B8A0-9BB5E76903D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8438,7 +8454,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C5D7-464D-9C72-E317FA08A9B7}"/>
+              <c16:uniqueId val="{00000001-83ED-42A2-B8A0-9BB5E76903D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8491,7 +8507,7 @@
             <c:numRef>
               <c:f>'[1]MCES clean'!$D$53:$D$266</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>mm/dd/yy;@</c:formatCode>
                 <c:ptCount val="214"/>
                 <c:pt idx="0">
                   <c:v>44200</c:v>
@@ -9142,7 +9158,7 @@
             <c:numRef>
               <c:f>'[1]MCES clean'!$P$53:$P$266</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0E+00</c:formatCode>
                 <c:ptCount val="214"/>
                 <c:pt idx="0">
                   <c:v>122.35437652883884</c:v>
@@ -9786,7 +9802,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C5D7-464D-9C72-E317FA08A9B7}"/>
+              <c16:uniqueId val="{00000003-83ED-42A2-B8A0-9BB5E76903D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10083,7 +10099,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="mm/dd/yy;@" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -12945,7 +12961,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68723820-BB2E-4DF5-AF8B-CAF840CB27D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96B80E09-E90B-4F99-882F-95D8798FA2BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12983,7 +12999,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A3B125E-F97B-4DCC-B0BC-1875006EC54F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{667D2FF1-A789-46CA-8C32-DD70EF4E3845}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13021,7 +13037,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC0086B5-4B65-4E64-AA83-80425FDEB368}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C938E99C-6023-447C-BE5C-F8211D72B5B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13059,7 +13075,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62AF19C4-7A92-4FBF-AE44-775E88F685CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35C7A6B1-9A42-4918-BBE8-0BC5A1584F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13097,7 +13113,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6C6C202-2879-42D8-A17F-712A8192A270}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B16F6D3-D8EE-4DAC-AA59-E8591261C240}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13124,6 +13140,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Sheet1 (2)"/>
       <sheetName val="Chart1"/>
       <sheetName val="Chart1 (2)"/>
       <sheetName val="Chart1 (3)"/>
@@ -13140,6 +13157,7 @@
       <sheetName val="summary2"/>
       <sheetName val="summary3"/>
       <sheetName val="summary4"/>
+      <sheetName val="Chart3"/>
       <sheetName val="big summary"/>
       <sheetName val="MCES clean"/>
       <sheetName val="A"/>
@@ -13179,30 +13197,1073 @@
       <sheetName val="L452R 0723-2"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16">
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="18">
         <row r="3">
           <cell r="A3">
             <v>44209</v>
           </cell>
+          <cell r="C3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>44211</v>
+          </cell>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>44215</v>
+          </cell>
+          <cell r="C5">
+            <v>4.6080370781528018E-2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>44221</v>
+          </cell>
+          <cell r="C6">
+            <v>4.4384986325409416E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>44223</v>
+          </cell>
+          <cell r="C7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>44227</v>
+          </cell>
+          <cell r="C8">
+            <v>2.270324922845799E-2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>44233</v>
+          </cell>
+          <cell r="C9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>44238</v>
+          </cell>
+          <cell r="C10">
+            <v>4.6464341441957782E-2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>44239</v>
+          </cell>
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>44245</v>
+          </cell>
+          <cell r="C12">
+            <v>0.12492110206161261</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>44249</v>
+          </cell>
+          <cell r="C13">
+            <v>0.19990036218299612</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>44251</v>
+          </cell>
+          <cell r="C14">
+            <v>0.13628910892140281</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>44263</v>
+          </cell>
+          <cell r="C15">
+            <v>6.8115495645753046E-2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>44269</v>
+          </cell>
+          <cell r="C16">
+            <v>0.16655790729934572</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>44276</v>
+          </cell>
+          <cell r="C17">
+            <v>0.35077028345774774</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>44280</v>
+          </cell>
+          <cell r="C18">
+            <v>0.74372302654395439</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>44287</v>
+          </cell>
+          <cell r="C19">
+            <v>0.66674336334541207</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>44287</v>
+          </cell>
+          <cell r="C20">
+            <v>0.64291285342720528</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>44288</v>
+          </cell>
+          <cell r="C21">
+            <v>0.63872457710566344</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>44288</v>
+          </cell>
+          <cell r="C22">
+            <v>0.74091718964818876</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>44289</v>
+          </cell>
+          <cell r="C23">
+            <v>0.75331110600606532</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>44289</v>
+          </cell>
+          <cell r="C24">
+            <v>0.8273831808631622</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>44290</v>
+          </cell>
+          <cell r="C25">
+            <v>0.74443555607336132</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>44290</v>
+          </cell>
+          <cell r="C26">
+            <v>0.64230383885439202</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>44291</v>
+          </cell>
+          <cell r="C27">
+            <v>0.84103254083549128</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>44291</v>
+          </cell>
+          <cell r="C28">
+            <v>0.70016298423181944</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>44292</v>
+          </cell>
+          <cell r="C29">
+            <v>0.76484271766467593</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>44292</v>
+          </cell>
+          <cell r="C30">
+            <v>0.73483057755473025</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>44295</v>
+          </cell>
+          <cell r="C31">
+            <v>0.73886694186871749</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>44304</v>
+          </cell>
+          <cell r="C32">
+            <v>0.80299872955181462</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>44305</v>
+          </cell>
+          <cell r="C33">
+            <v>0.6516550865136661</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>44308</v>
+          </cell>
+          <cell r="C34">
+            <v>0.91892885651434852</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>44312</v>
+          </cell>
+          <cell r="C35">
+            <v>0.78968843561117519</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>44315</v>
+          </cell>
+          <cell r="C36">
+            <v>0.69755130796753095</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>44321</v>
+          </cell>
+          <cell r="C37">
+            <v>0.68899059283678021</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>44324</v>
+          </cell>
+          <cell r="C38">
+            <v>0.66083437984583893</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>44325</v>
+          </cell>
+          <cell r="C39">
+            <v>0.90008760319250469</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>44328</v>
+          </cell>
+          <cell r="C40">
+            <v>0.94948474977512576</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>44332</v>
+          </cell>
+          <cell r="C41">
+            <v>0.85430637178031876</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>44333</v>
+          </cell>
+          <cell r="C42">
+            <v>0.75008023507835941</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>44334</v>
+          </cell>
+          <cell r="C43">
+            <v>0.79320793765963071</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>44335</v>
+          </cell>
+          <cell r="C44">
+            <v>0.9130832044529914</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>44336</v>
+          </cell>
+          <cell r="C45">
+            <v>0.87188156394988048</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>44339</v>
+          </cell>
+          <cell r="C46">
+            <v>0.70376999874757429</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>44340</v>
+          </cell>
+          <cell r="C47">
+            <v>0.78952295668679706</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>44342</v>
+          </cell>
+          <cell r="C48">
+            <v>0.80005474292308942</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>44343</v>
+          </cell>
+          <cell r="C49">
+            <v>0.96635785593216672</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>44346</v>
+          </cell>
+          <cell r="C50">
+            <v>0.76675278657227408</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>44347</v>
+          </cell>
+          <cell r="C51">
+            <v>0.7000690739811144</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>44348</v>
+          </cell>
+          <cell r="C52">
+            <v>0.39997865010255251</v>
+          </cell>
+          <cell r="O52">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>44349</v>
+          </cell>
+          <cell r="C53">
+            <v>0.76475218372313081</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>44350</v>
+          </cell>
+          <cell r="C54">
+            <v>0.60002206877920639</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>44351</v>
+          </cell>
+          <cell r="C55">
+            <v>0.82357546024018768</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>44352</v>
+          </cell>
+          <cell r="C56">
+            <v>0.72226806726880244</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>44353</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>44354</v>
+          </cell>
+          <cell r="C58">
+            <v>0.61114312393869785</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>44354</v>
+          </cell>
+          <cell r="C59">
+            <v>0.8889104449747105</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>44355</v>
+          </cell>
+          <cell r="C60">
+            <v>0.90911521317160304</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>44355</v>
+          </cell>
+          <cell r="C61">
+            <v>0.42856369956334234</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>44356</v>
+          </cell>
+          <cell r="C62">
+            <v>0.58335250461364518</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>44357</v>
+          </cell>
+          <cell r="C63">
+            <v>0.58334901310927068</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>44357</v>
+          </cell>
+          <cell r="C64">
+            <v>0.42855770950698568</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>44358</v>
+          </cell>
+          <cell r="C65">
+            <v>0.60001454875907678</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>44359</v>
+          </cell>
+          <cell r="C66">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>44359</v>
+          </cell>
+          <cell r="C67">
+            <v>0</v>
+          </cell>
+          <cell r="O67">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>44360</v>
+          </cell>
+          <cell r="C68">
+            <v>0.7059361876292074</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>44361</v>
+          </cell>
+          <cell r="C69">
+            <v>0.70593301146762022</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>44362</v>
+          </cell>
+          <cell r="C70">
+            <v>0.87502023580017574</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>44363</v>
+          </cell>
+          <cell r="C71">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>44363</v>
+          </cell>
+          <cell r="C72">
+            <v>0.5</v>
+          </cell>
+          <cell r="O72">
+            <v>0.39999282391656438</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>44364</v>
+          </cell>
+          <cell r="O73">
+            <v>0.24997721954570287</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>44365</v>
+          </cell>
+          <cell r="C74">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>44365</v>
+          </cell>
+          <cell r="C75">
+            <v>0.46153194667302444</v>
+          </cell>
+          <cell r="O75">
+            <v>0.19997385818713756</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>44366</v>
+          </cell>
+          <cell r="C76">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>44367</v>
+          </cell>
+          <cell r="C77">
+            <v>0.28567851058253829</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>44368</v>
+          </cell>
+          <cell r="C78">
+            <v>0.2499753959685676</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>44369</v>
+          </cell>
+          <cell r="C79">
+            <v>2.6966361431424276E-2</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>44370</v>
+          </cell>
+          <cell r="C80">
+            <v>0.11104824963198937</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>44371</v>
+          </cell>
+          <cell r="C81">
+            <v>0.33331195886437803</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>44372</v>
+          </cell>
+          <cell r="C82">
+            <v>0.85953126992871709</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>44372</v>
+          </cell>
+          <cell r="C83">
+            <v>0.37498520942589664</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>44373</v>
+          </cell>
+          <cell r="C84">
+            <v>0.14284919019710685</v>
+          </cell>
+          <cell r="O84">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>44374</v>
+          </cell>
+          <cell r="C85">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>44375</v>
+          </cell>
+          <cell r="C86">
+            <v>0.2999790842603387</v>
+          </cell>
+          <cell r="O86">
+            <v>0.66667242435867413</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>44375</v>
+          </cell>
+          <cell r="C87">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>44377</v>
+          </cell>
+          <cell r="C88">
+            <v>0.42856120541730142</v>
+          </cell>
+          <cell r="O88">
+            <v>0.42856428717987016</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>44378</v>
+          </cell>
+          <cell r="C89">
+            <v>0</v>
+          </cell>
+          <cell r="O89">
+            <v>0.62501454497207432</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>44379</v>
+          </cell>
+          <cell r="C90">
+            <v>0.21047843263626051</v>
+          </cell>
+          <cell r="O90">
+            <v>0.12498059068184429</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>44380</v>
+          </cell>
+          <cell r="C91">
+            <v>0.33331685701075137</v>
+          </cell>
+          <cell r="O91">
+            <v>0.33331804183684582</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>44381</v>
+          </cell>
+          <cell r="C92">
+            <v>8.3294287482210433E-2</v>
+          </cell>
+          <cell r="O92">
+            <v>0.45453817363962074</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>44382</v>
+          </cell>
+          <cell r="C93">
+            <v>0</v>
+          </cell>
+          <cell r="O93">
+            <v>0.39999223165822684</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>44382</v>
+          </cell>
+          <cell r="C94">
+            <v>9.9964579825841296E-2</v>
+          </cell>
+          <cell r="O94">
+            <v>0.85715973327568185</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>44383</v>
+          </cell>
+          <cell r="C95">
+            <v>0</v>
+          </cell>
+          <cell r="O95">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>44384</v>
+          </cell>
+          <cell r="O96">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>44385</v>
+          </cell>
+          <cell r="C97">
+            <v>0.33330324293304359</v>
+          </cell>
+          <cell r="O97">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>44387</v>
+          </cell>
+          <cell r="C98">
+            <v>0</v>
+          </cell>
+          <cell r="O98">
+            <v>0.8333538648198241</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>44388</v>
+          </cell>
+          <cell r="C99">
+            <v>0.5</v>
+          </cell>
+          <cell r="O99">
+            <v>0.90001986352668628</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>44390</v>
+          </cell>
+          <cell r="C100">
+            <v>0</v>
+          </cell>
+          <cell r="O100">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>44391</v>
+          </cell>
+          <cell r="C101">
+            <v>4.077080955371707E-2</v>
+          </cell>
+          <cell r="O101">
+            <v>0.87501979908878891</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102">
+            <v>44393</v>
+          </cell>
+          <cell r="C102">
+            <v>6.055978383286955E-2</v>
+          </cell>
+          <cell r="O102">
+            <v>0.88890803117021544</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103">
+            <v>44394</v>
+          </cell>
+          <cell r="C103">
+            <v>6.2458045604199208E-2</v>
+          </cell>
+          <cell r="O103">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104">
+            <v>44396</v>
+          </cell>
+          <cell r="C104">
+            <v>6.5154215495341297E-2</v>
+          </cell>
+          <cell r="O104">
+            <v>0.80002675924054956</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105">
+            <v>44397</v>
+          </cell>
+          <cell r="C105">
+            <v>8.1552501421236323E-2</v>
+          </cell>
+          <cell r="O105">
+            <v>0.77780311749078368</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106">
+            <v>44399</v>
+          </cell>
+          <cell r="C106">
+            <v>2.4366912925163738E-2</v>
+          </cell>
+          <cell r="O106">
+            <v>0.87502027817214778</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107">
+            <v>44400</v>
+          </cell>
+          <cell r="C107">
+            <v>0</v>
+          </cell>
+          <cell r="O107">
+            <v>0.80004074068280762</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108">
+            <v>44402</v>
+          </cell>
+          <cell r="C108">
+            <v>0</v>
+          </cell>
+          <cell r="O108">
+            <v>0.93553335304736307</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109">
+            <v>44403</v>
+          </cell>
+          <cell r="C109">
+            <v>0</v>
+          </cell>
+          <cell r="O109">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110">
+            <v>44404</v>
+          </cell>
+          <cell r="C110">
+            <v>2.3479387810676409E-2</v>
+          </cell>
+          <cell r="O110">
+            <v>0.94739313612358489</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111">
+            <v>44405</v>
+          </cell>
+          <cell r="C111">
+            <v>0</v>
+          </cell>
+          <cell r="O111">
+            <v>0.96669343428549592</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112">
+            <v>44406</v>
+          </cell>
+          <cell r="C112">
+            <v>1.0284470536921515E-2</v>
+          </cell>
+          <cell r="O112">
+            <v>0.93484932467426229</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113">
+            <v>44408</v>
+          </cell>
+          <cell r="C113">
+            <v>0</v>
+          </cell>
+          <cell r="O113">
+            <v>0.97226934823253663</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114">
+            <v>44410</v>
+          </cell>
+          <cell r="C114">
+            <v>0</v>
+          </cell>
+          <cell r="O114">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115">
+            <v>44411</v>
+          </cell>
+          <cell r="C115">
+            <v>0</v>
+          </cell>
+          <cell r="O115">
+            <v>0.92689180355859169</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116">
+            <v>44413</v>
+          </cell>
+          <cell r="C116">
+            <v>0</v>
+          </cell>
+          <cell r="O116">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117">
+            <v>44414</v>
+          </cell>
+          <cell r="C117">
+            <v>9.2319662089771649E-3</v>
+          </cell>
+          <cell r="O117">
+            <v>0.97919395823942235</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118">
+            <v>44415</v>
+          </cell>
+          <cell r="C118">
+            <v>8.4481340163714853E-3</v>
+          </cell>
+          <cell r="O118">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119">
+            <v>44417</v>
+          </cell>
+          <cell r="C119">
+            <v>2.6971003551832275E-2</v>
+          </cell>
+          <cell r="O119">
+            <v>0.94123014542295069</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120">
+            <v>44418</v>
+          </cell>
+          <cell r="C120">
+            <v>1.0842639838236787E-2</v>
+          </cell>
+          <cell r="O120">
+            <v>1</v>
+          </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="17">
+      <sheetData sheetId="19">
         <row r="53">
           <cell r="D53">
             <v>44200</v>
@@ -14910,16 +15971,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
@@ -14945,6 +15999,8 @@
       <sheetData sheetId="50"/>
       <sheetData sheetId="51"/>
       <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -15246,21 +16302,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399D6088-EA03-4F04-B204-3444759BE476}">
-  <dimension ref="A1:W442"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F7A2CE-401E-4D8F-9610-EBB630AE369D}">
+  <dimension ref="A1:W434"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C261" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H281" sqref="H281"/>
+      <selection pane="bottomRight" activeCell="I287" sqref="I287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="59" customWidth="1"/>
-    <col min="4" max="6" width="10.85546875" style="64"/>
+    <col min="4" max="4" width="11.85546875" style="64" customWidth="1"/>
+    <col min="5" max="6" width="10.85546875" style="64"/>
     <col min="10" max="12" width="10.85546875" style="61"/>
     <col min="13" max="13" width="11.140625" customWidth="1"/>
     <col min="16" max="16" width="11.140625" style="65" customWidth="1"/>
@@ -19140,7 +20197,6 @@
         <v>62</v>
       </c>
       <c r="C84" s="59">
-        <f>AVERAGE(C441:C442)</f>
         <v>0.14284919019710685</v>
       </c>
       <c r="D84" s="43">
@@ -19150,7 +20206,6 @@
         <v>62</v>
       </c>
       <c r="F84" s="60">
-        <f>AVERAGE(F441:F442)</f>
         <v>0.46874351487796423</v>
       </c>
       <c r="G84" s="40">
@@ -19166,7 +20221,6 @@
         <v>62</v>
       </c>
       <c r="O84" s="59">
-        <f>AVERAGE(O441:O442)</f>
         <v>0.5</v>
       </c>
       <c r="P84" s="51">
@@ -19176,7 +20230,6 @@
         <v>62</v>
       </c>
       <c r="R84" s="62">
-        <f>AVERAGE(R441:R442)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -23650,6 +24703,15 @@
       <c r="A241" s="40">
         <v>44534</v>
       </c>
+      <c r="D241" s="40">
+        <v>44534</v>
+      </c>
+      <c r="E241" s="41">
+        <v>12052</v>
+      </c>
+      <c r="F241" s="42">
+        <v>2.4097856449893686E-2</v>
+      </c>
       <c r="M241" s="40">
         <v>44534</v>
       </c>
@@ -23673,6 +24735,9 @@
       <c r="A242" s="40">
         <v>44535</v>
       </c>
+      <c r="D242"/>
+      <c r="E242"/>
+      <c r="F242"/>
       <c r="M242" s="40">
         <v>44535</v>
       </c>
@@ -23696,6 +24761,9 @@
       <c r="A243" s="40">
         <v>44536</v>
       </c>
+      <c r="D243"/>
+      <c r="E243"/>
+      <c r="F243"/>
       <c r="M243" s="40">
         <v>44536</v>
       </c>
@@ -23719,10 +24787,13 @@
       <c r="A244" s="40">
         <v>44536</v>
       </c>
+      <c r="D244"/>
+      <c r="E244"/>
+      <c r="F244"/>
       <c r="M244" s="40">
         <v>44536</v>
       </c>
-      <c r="N244" s="66">
+      <c r="N244" s="41">
         <v>12074</v>
       </c>
       <c r="O244" s="67">
@@ -23743,6 +24814,9 @@
       <c r="A245" s="40">
         <v>44537</v>
       </c>
+      <c r="D245"/>
+      <c r="E245"/>
+      <c r="F245"/>
       <c r="M245" s="40">
         <v>44537</v>
       </c>
@@ -23766,6 +24840,15 @@
       <c r="A246" s="40">
         <v>44538</v>
       </c>
+      <c r="D246" s="40">
+        <v>44538</v>
+      </c>
+      <c r="E246" s="41">
+        <v>12095</v>
+      </c>
+      <c r="F246" s="42">
+        <v>1.6978401208331793E-2</v>
+      </c>
       <c r="M246" s="40">
         <v>44538</v>
       </c>
@@ -23789,6 +24872,15 @@
       <c r="A247" s="40">
         <v>44539</v>
       </c>
+      <c r="D247" s="40">
+        <v>44539</v>
+      </c>
+      <c r="E247" s="41">
+        <v>12103</v>
+      </c>
+      <c r="F247" s="42">
+        <v>1.7619534726769064E-2</v>
+      </c>
       <c r="M247" s="40">
         <v>44539</v>
       </c>
@@ -23812,6 +24904,9 @@
       <c r="A248" s="40">
         <v>44540</v>
       </c>
+      <c r="D248"/>
+      <c r="E248"/>
+      <c r="F248"/>
       <c r="M248" s="40">
         <v>44540</v>
       </c>
@@ -23835,6 +24930,9 @@
       <c r="A249" s="40">
         <v>44541</v>
       </c>
+      <c r="D249"/>
+      <c r="E249"/>
+      <c r="F249"/>
       <c r="M249" s="40">
         <v>44541</v>
       </c>
@@ -23858,10 +24956,13 @@
       <c r="A250" s="40">
         <v>44541</v>
       </c>
+      <c r="D250"/>
+      <c r="E250"/>
+      <c r="F250"/>
       <c r="M250" s="40">
         <v>44541</v>
       </c>
-      <c r="N250" s="66">
+      <c r="N250" s="41">
         <v>12126</v>
       </c>
       <c r="O250" s="67">
@@ -23882,6 +24983,9 @@
       <c r="A251" s="40">
         <v>44542</v>
       </c>
+      <c r="D251"/>
+      <c r="E251"/>
+      <c r="F251"/>
       <c r="M251" s="40">
         <v>44542</v>
       </c>
@@ -23905,6 +25009,15 @@
       <c r="A252" s="40">
         <v>44543</v>
       </c>
+      <c r="D252" s="40">
+        <v>44543</v>
+      </c>
+      <c r="E252" s="41">
+        <v>12148</v>
+      </c>
+      <c r="F252" s="42">
+        <v>8.2457514554201569E-2</v>
+      </c>
       <c r="M252" s="40">
         <v>44543</v>
       </c>
@@ -23928,6 +25041,9 @@
       <c r="A253" s="40">
         <v>44544</v>
       </c>
+      <c r="D253"/>
+      <c r="E253"/>
+      <c r="F253"/>
       <c r="M253" s="40">
         <v>44544</v>
       </c>
@@ -23951,10 +25067,13 @@
       <c r="A254" s="40">
         <v>44544</v>
       </c>
+      <c r="D254"/>
+      <c r="E254"/>
+      <c r="F254"/>
       <c r="M254" s="40">
         <v>44544</v>
       </c>
-      <c r="N254" s="66">
+      <c r="N254" s="41">
         <v>12151</v>
       </c>
       <c r="O254" s="67">
@@ -23975,6 +25094,15 @@
       <c r="A255" s="40">
         <v>44545</v>
       </c>
+      <c r="D255" s="40">
+        <v>44545</v>
+      </c>
+      <c r="E255" s="41">
+        <v>12163</v>
+      </c>
+      <c r="F255" s="42">
+        <v>0.10747352715183751</v>
+      </c>
       <c r="M255" s="40">
         <v>44545</v>
       </c>
@@ -23999,6 +25127,9 @@
       <c r="A256" s="40">
         <v>44545</v>
       </c>
+      <c r="D256"/>
+      <c r="E256"/>
+      <c r="F256"/>
       <c r="M256" s="40">
         <v>44545</v>
       </c>
@@ -24022,6 +25153,15 @@
       <c r="A257" s="40">
         <v>44546</v>
       </c>
+      <c r="D257" s="40">
+        <v>44546</v>
+      </c>
+      <c r="E257" s="41">
+        <v>12172</v>
+      </c>
+      <c r="F257" s="42">
+        <v>0.11209775169882734</v>
+      </c>
       <c r="M257" s="40">
         <v>44546</v>
       </c>
@@ -24045,6 +25185,9 @@
       <c r="A258" s="40">
         <v>44546</v>
       </c>
+      <c r="D258"/>
+      <c r="E258"/>
+      <c r="F258"/>
       <c r="M258" s="40">
         <v>44546</v>
       </c>
@@ -24068,6 +25211,9 @@
       <c r="A259" s="40">
         <v>44547</v>
       </c>
+      <c r="D259"/>
+      <c r="E259"/>
+      <c r="F259"/>
       <c r="M259" s="40">
         <v>44547</v>
       </c>
@@ -24091,6 +25237,15 @@
       <c r="A260" s="40">
         <v>44548</v>
       </c>
+      <c r="D260" s="40">
+        <v>44548</v>
+      </c>
+      <c r="E260" s="41">
+        <v>12192</v>
+      </c>
+      <c r="F260" s="42">
+        <v>0.26521396813026948</v>
+      </c>
       <c r="M260" s="40">
         <v>44548</v>
       </c>
@@ -24114,6 +25269,9 @@
       <c r="A261" s="40">
         <v>44548</v>
       </c>
+      <c r="D261"/>
+      <c r="E261"/>
+      <c r="F261"/>
       <c r="M261" s="40">
         <v>44548</v>
       </c>
@@ -24137,6 +25295,15 @@
       <c r="A262" s="40">
         <v>44549</v>
       </c>
+      <c r="D262" s="40">
+        <v>44549</v>
+      </c>
+      <c r="E262" s="41">
+        <v>12202</v>
+      </c>
+      <c r="F262" s="42">
+        <v>0.28422383410123025</v>
+      </c>
       <c r="M262" s="40">
         <v>44549</v>
       </c>
@@ -24160,6 +25327,9 @@
       <c r="A263" s="40">
         <v>44549</v>
       </c>
+      <c r="D263"/>
+      <c r="E263"/>
+      <c r="F263"/>
       <c r="M263" s="40">
         <v>44549</v>
       </c>
@@ -24183,6 +25353,9 @@
       <c r="A264" s="40">
         <v>44550</v>
       </c>
+      <c r="D264"/>
+      <c r="E264"/>
+      <c r="F264"/>
       <c r="M264" s="40">
         <v>44550</v>
       </c>
@@ -24206,6 +25379,15 @@
       <c r="A265" s="40">
         <v>44551</v>
       </c>
+      <c r="D265" s="40">
+        <v>44551</v>
+      </c>
+      <c r="E265" s="41">
+        <v>12222</v>
+      </c>
+      <c r="F265" s="42">
+        <v>0.50599905131657086</v>
+      </c>
       <c r="M265" s="40">
         <v>44551</v>
       </c>
@@ -24229,6 +25411,15 @@
       <c r="A266" s="40">
         <v>44552</v>
       </c>
+      <c r="D266" s="40">
+        <v>44552</v>
+      </c>
+      <c r="E266" s="41">
+        <v>12235</v>
+      </c>
+      <c r="F266" s="42">
+        <v>0.61045131371341821</v>
+      </c>
       <c r="M266" s="40">
         <v>44552</v>
       </c>
@@ -24252,6 +25443,15 @@
       <c r="A267" s="40">
         <v>44553</v>
       </c>
+      <c r="D267" s="40">
+        <v>44553</v>
+      </c>
+      <c r="E267" s="41">
+        <v>12246</v>
+      </c>
+      <c r="F267" s="42">
+        <v>0.61036576277269738</v>
+      </c>
       <c r="M267" s="40">
         <v>44553</v>
       </c>
@@ -24275,6 +25475,9 @@
       <c r="A268" s="40">
         <v>44554</v>
       </c>
+      <c r="D268"/>
+      <c r="E268"/>
+      <c r="F268"/>
       <c r="M268" s="40">
         <v>44554</v>
       </c>
@@ -24298,6 +25501,15 @@
       <c r="A269" s="40">
         <v>44555</v>
       </c>
+      <c r="D269" s="40">
+        <v>44555</v>
+      </c>
+      <c r="E269" s="41">
+        <v>12262</v>
+      </c>
+      <c r="F269" s="42">
+        <v>0.69084489022850226</v>
+      </c>
       <c r="M269" s="40">
         <v>44555</v>
       </c>
@@ -24321,6 +25533,15 @@
       <c r="A270" s="40">
         <v>44556</v>
       </c>
+      <c r="D270" s="40">
+        <v>44556</v>
+      </c>
+      <c r="E270" s="41">
+        <v>12273</v>
+      </c>
+      <c r="F270" s="42">
+        <v>0.75753724557054369</v>
+      </c>
       <c r="M270" s="40">
         <v>44556</v>
       </c>
@@ -24344,6 +25565,9 @@
       <c r="A271" s="40">
         <v>44557</v>
       </c>
+      <c r="D271"/>
+      <c r="E271"/>
+      <c r="F271"/>
       <c r="M271" s="40">
         <v>44557</v>
       </c>
@@ -24366,6 +25590,15 @@
     <row r="272" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>44558</v>
+      </c>
+      <c r="D272" s="40">
+        <v>44558</v>
+      </c>
+      <c r="E272" s="41">
+        <v>12292</v>
+      </c>
+      <c r="F272" s="42">
+        <v>0.85102178345048174</v>
       </c>
       <c r="M272" s="40">
         <v>44558</v>
@@ -25051,149 +26284,388 @@
         <v>0.97423834511487661</v>
       </c>
     </row>
+    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A294" s="40">
+        <v>44579</v>
+      </c>
+      <c r="D294" s="43">
+        <v>44579</v>
+      </c>
+      <c r="E294" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="F294" s="45">
+        <v>0.96119890298902788</v>
+      </c>
+      <c r="M294" s="40">
+        <v>44579</v>
+      </c>
+      <c r="N294" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="O294" s="42">
+        <v>3.4362645588638399E-2</v>
+      </c>
+      <c r="P294" s="51">
+        <v>44579</v>
+      </c>
+      <c r="Q294" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="R294" s="53">
+        <v>0.95627134117625567</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A295" s="40">
+        <v>44580</v>
+      </c>
+      <c r="D295" s="43">
+        <v>44580</v>
+      </c>
+      <c r="E295" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F295" s="45">
+        <v>0.96378493357348938</v>
+      </c>
+      <c r="M295" s="40">
+        <v>44580</v>
+      </c>
+      <c r="N295" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="O295" s="42">
+        <v>1.6915202637521411E-2</v>
+      </c>
+      <c r="P295" s="51">
+        <v>44580</v>
+      </c>
+      <c r="Q295" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="R295" s="53">
+        <v>0.97849837072761114</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A296" s="40">
+        <v>44581</v>
+      </c>
+      <c r="D296" s="43">
+        <v>44581</v>
+      </c>
+      <c r="E296" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="F296" s="45">
+        <v>0.96758467747695498</v>
+      </c>
+      <c r="M296" s="40">
+        <v>44581</v>
+      </c>
+      <c r="N296" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="O296" s="42">
+        <v>5.0183054539421467E-3</v>
+      </c>
+      <c r="P296" s="51">
+        <v>44581</v>
+      </c>
+      <c r="Q296" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="R296" s="53">
+        <v>0.96836564151405913</v>
+      </c>
+    </row>
     <row r="297" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J297" s="74" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="439" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B439" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="C439" s="42">
+      <c r="A297" s="40">
+        <v>44582</v>
+      </c>
+      <c r="D297" s="43">
+        <v>44582</v>
+      </c>
+      <c r="E297" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="F297" s="45">
+        <v>0.97636759104424498</v>
+      </c>
+      <c r="M297" s="40">
+        <v>44582</v>
+      </c>
+      <c r="N297" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="O297" s="42">
+        <v>1.0690102064838721E-2</v>
+      </c>
+      <c r="P297" s="51">
+        <v>44582</v>
+      </c>
+      <c r="Q297" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="R297" s="53">
+        <v>0.96633701102796266</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A298" s="40">
+        <v>44583</v>
+      </c>
+      <c r="C298"/>
+      <c r="D298" s="43">
+        <v>44583</v>
+      </c>
+      <c r="E298" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="F298" s="45">
+        <v>0.97356514509531866</v>
+      </c>
+      <c r="M298" s="40">
+        <v>44583</v>
+      </c>
+      <c r="N298" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="O298" s="42">
+        <v>1.4339187083959109E-2</v>
+      </c>
+      <c r="P298" s="51">
+        <v>44583</v>
+      </c>
+      <c r="Q298" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="R298" s="53">
+        <v>0.99596673507918809</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A299" s="40">
+        <v>44584</v>
+      </c>
+      <c r="C299"/>
+      <c r="D299" s="43">
+        <v>44584</v>
+      </c>
+      <c r="E299" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="F299" s="45">
+        <v>0.95672864995237128</v>
+      </c>
+      <c r="G299" s="74"/>
+      <c r="M299" s="40">
+        <v>44584</v>
+      </c>
+      <c r="N299" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="O299" s="42">
+        <v>1.9643714346226523E-2</v>
+      </c>
+      <c r="P299" s="51">
+        <v>44584</v>
+      </c>
+      <c r="Q299" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="R299" s="53">
+        <v>0.97476308503781395</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C300"/>
+      <c r="G300" s="74"/>
+    </row>
+    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C301"/>
+      <c r="G301" s="74"/>
+    </row>
+    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C302"/>
+      <c r="G302" s="74"/>
+    </row>
+    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C303"/>
+      <c r="G303" s="74"/>
+    </row>
+    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C304"/>
+      <c r="G304" s="74"/>
+    </row>
+    <row r="305" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C305"/>
+      <c r="G305" s="74"/>
+    </row>
+    <row r="306" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C306"/>
+      <c r="G306" s="74"/>
+    </row>
+    <row r="307" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C307"/>
+      <c r="G307" s="74"/>
+    </row>
+    <row r="308" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C308"/>
+      <c r="G308" s="74"/>
+    </row>
+    <row r="309" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C309"/>
+      <c r="G309" s="74"/>
+    </row>
+    <row r="310" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C310"/>
+      <c r="G310" s="74"/>
+    </row>
+    <row r="313" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J313" s="75" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="431" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B431" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="C431" s="42">
         <v>2.0344120801718359E-2</v>
       </c>
-      <c r="D439" s="43">
+      <c r="D431" s="43">
         <v>44370</v>
       </c>
-      <c r="E439" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="F439" s="45">
+      <c r="E431" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="F431" s="45">
         <v>0.33332041069575918</v>
       </c>
-      <c r="G439" s="40">
+      <c r="G431" s="40">
         <v>44370</v>
       </c>
-      <c r="H439" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="I439" s="42">
+      <c r="H431" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="I431" s="42">
         <v>1.6361779116456095E-2</v>
       </c>
-      <c r="J439" s="46">
+      <c r="J431" s="46">
         <v>44370</v>
       </c>
-      <c r="K439" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="L439" s="48" t="e">
+      <c r="K431" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="L431" s="48" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="N439" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="O439" s="42">
+      <c r="N431" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="O431" s="42">
         <v>1.1464873318903971E-2</v>
       </c>
-      <c r="Q439" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="R439" s="53">
+      <c r="Q431" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="R431" s="53">
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B441" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="C441" s="42">
+    <row r="433" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B433" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="C433" s="42">
         <v>0.28569838039421369</v>
       </c>
-      <c r="D441" s="43">
+      <c r="D433" s="43">
         <v>44374</v>
       </c>
-      <c r="E441" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="F441" s="45">
+      <c r="E433" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="F433" s="45">
         <v>0.43748702975592846</v>
       </c>
-      <c r="G441" s="40">
+      <c r="G433" s="40">
         <v>44374</v>
       </c>
-      <c r="H441" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="I441" s="42">
+      <c r="H433" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="I433" s="42">
         <v>0.44443767665469402</v>
       </c>
-      <c r="J441" s="46">
+      <c r="J433" s="46">
         <v>44374</v>
       </c>
-      <c r="K441" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="L441" s="48" t="e">
+      <c r="K433" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="L433" s="48" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="N441" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="O441" s="42">
+      <c r="N433" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="O433" s="42">
         <v>1</v>
       </c>
-      <c r="Q441" s="52" t="s">
-        <v>190</v>
-      </c>
-      <c r="R441" s="53">
+      <c r="Q433" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="R433" s="53">
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B442" s="41">
+    <row r="434" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B434" s="41">
         <v>6274</v>
       </c>
-      <c r="C442" s="42">
+      <c r="C434" s="42">
         <v>0</v>
       </c>
-      <c r="D442" s="43">
+      <c r="D434" s="43">
         <v>44374</v>
       </c>
-      <c r="E442" s="44">
+      <c r="E434" s="44">
         <v>6274</v>
       </c>
-      <c r="F442" s="45">
+      <c r="F434" s="45">
         <v>0.5</v>
       </c>
-      <c r="G442" s="40">
+      <c r="G434" s="40">
         <v>44374</v>
       </c>
-      <c r="H442" s="41">
+      <c r="H434" s="41">
         <v>6274</v>
       </c>
-      <c r="I442" s="42" t="e">
+      <c r="I434" s="42" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="J442" s="46">
+      <c r="J434" s="46">
         <v>44374</v>
       </c>
-      <c r="K442" s="47">
+      <c r="K434" s="47">
         <v>6274</v>
       </c>
-      <c r="L442" s="48">
+      <c r="L434" s="48">
         <v>0</v>
       </c>
-      <c r="N442" s="49">
+      <c r="N434" s="49">
         <v>6274</v>
       </c>
-      <c r="O442" s="50">
+      <c r="O434" s="50">
         <v>0</v>
       </c>
-      <c r="Q442" s="52">
+      <c r="Q434" s="52">
         <v>6274</v>
       </c>
-      <c r="R442" s="53">
+      <c r="R434" s="53">
         <v>1</v>
       </c>
     </row>
@@ -25202,4 +26674,284 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF6DB9AE0801664CA7022A904D0AA23C" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ef06630e6dad62579370c37a4a75472e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d037e43-dc6e-49d3-a5ce-28e5ae53c4d2" xmlns:ns4="dc302e13-f8af-4931-a923-d612bc0608e7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="950a109e65b6f23ead476cda0d273964" ns3:_="" ns4:_="">
+    <xsd:import namespace="1d037e43-dc6e-49d3-a5ce-28e5ae53c4d2"/>
+    <xsd:import namespace="dc302e13-f8af-4931-a923-d612bc0608e7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1d037e43-dc6e-49d3-a5ce-28e5ae53c4d2" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="dc302e13-f8af-4931-a923-d612bc0608e7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="13" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="14" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="15" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DE47DBC-04B8-4CF7-8E3E-27D3A4FBEEA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1d037e43-dc6e-49d3-a5ce-28e5ae53c4d2"/>
+    <ds:schemaRef ds:uri="dc302e13-f8af-4931-a923-d612bc0608e7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{370AE76F-76E3-422B-B5BA-DAA5D5D93D0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A5D5001-B3CA-4F90-B79F-A8574B21341D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/raw-variant-data.xlsx
+++ b/data/raw-variant-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://metcmn-my.sharepoint.com/personal/steve_balogh_metc_state_mn_us/Documents/DATA/XLS/1-SARS-CoV-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA153AAD-0E84-4B2A-B45A-20B13F411053}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49066164-1F87-471E-AC47-A3C9BAB9B575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49734A0C-BF38-4361-A412-F33311F92D83}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9A305A84-C6A6-43C1-A41C-4D31B24E0521}"/>
   </bookViews>
   <sheets>
     <sheet name="big summary" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="200">
   <si>
     <t>N501Y</t>
   </si>
@@ -618,6 +618,15 @@
     <t>1246</t>
   </si>
   <si>
+    <t>1255</t>
+  </si>
+  <si>
+    <t>1262</t>
+  </si>
+  <si>
+    <t>1273</t>
+  </si>
+  <si>
     <t>USE SAMPLE START DATE ONLY!</t>
   </si>
   <si>
@@ -631,7 +640,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -975,7 +984,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{D7DF96D6-B2D8-411F-9A52-FC9CFD9054D5}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{7924ADEC-9A99-4517-8293-DB9F08B64542}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1774,7 +1783,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-107F-4D23-B0AB-731967C4571A}"/>
+              <c16:uniqueId val="{00000000-B023-479A-A18D-1DCC2826FB27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2284,7 +2293,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-107F-4D23-B0AB-731967C4571A}"/>
+              <c16:uniqueId val="{00000001-B023-479A-A18D-1DCC2826FB27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3263,7 +3272,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9E0B-485B-A39D-C9027782E716}"/>
+              <c16:uniqueId val="{00000000-D5DF-4C39-A394-45DF545CC3B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3774,7 +3783,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9E0B-485B-A39D-C9027782E716}"/>
+              <c16:uniqueId val="{00000001-D5DF-4C39-A394-45DF545CC3B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4754,7 +4763,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6E40-4213-A2DB-9E6ED9B36FB4}"/>
+              <c16:uniqueId val="{00000000-9AD8-4515-AD99-9FADD85D1446}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5265,7 +5274,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6E40-4213-A2DB-9E6ED9B36FB4}"/>
+              <c16:uniqueId val="{00000001-9AD8-4515-AD99-9FADD85D1446}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6315,7 +6324,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CBC3-4F56-AD76-B21081FB88B2}"/>
+              <c16:uniqueId val="{00000000-38D5-4E4C-A55E-AAE8B65590FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6837,7 +6846,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CBC3-4F56-AD76-B21081FB88B2}"/>
+              <c16:uniqueId val="{00000001-38D5-4E4C-A55E-AAE8B65590FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7932,7 +7941,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-83ED-42A2-B8A0-9BB5E76903D7}"/>
+              <c16:uniqueId val="{00000000-889B-473D-A0D3-764FAC1B1A32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8454,7 +8463,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-83ED-42A2-B8A0-9BB5E76903D7}"/>
+              <c16:uniqueId val="{00000001-889B-473D-A0D3-764FAC1B1A32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9802,7 +9811,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-83ED-42A2-B8A0-9BB5E76903D7}"/>
+              <c16:uniqueId val="{00000003-889B-473D-A0D3-764FAC1B1A32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12961,7 +12970,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96B80E09-E90B-4F99-882F-95D8798FA2BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAA9A661-55C3-4F26-8BBB-151828E65DCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12999,7 +13008,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{667D2FF1-A789-46CA-8C32-DD70EF4E3845}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E44880E0-84F7-4AD9-8E1A-1A3CECF68691}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13037,7 +13046,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C938E99C-6023-447C-BE5C-F8211D72B5B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1707A53A-9CE9-49E3-A34A-7E80AE6E5E64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13075,7 +13084,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35C7A6B1-9A42-4918-BBE8-0BC5A1584F32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E92E23D-CA92-47E3-9C80-F9D7425B4A8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13113,7 +13122,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B16F6D3-D8EE-4DAC-AA59-E8591261C240}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D3DAEC-8F89-4C8C-A98A-58AC9404B250}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13157,7 +13166,9 @@
       <sheetName val="summary2"/>
       <sheetName val="summary3"/>
       <sheetName val="summary4"/>
-      <sheetName val="Chart3"/>
+      <sheetName val="BA2 vs BA1"/>
+      <sheetName val="BA2 vs BA1 (2)"/>
+      <sheetName val="BA2 vs BA1 (3)"/>
       <sheetName val="big summary"/>
       <sheetName val="MCES clean"/>
       <sheetName val="A"/>
@@ -13206,7 +13217,7 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="18">
+      <sheetData sheetId="20">
         <row r="3">
           <cell r="A3">
             <v>44209</v>
@@ -14263,7 +14274,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="19">
+      <sheetData sheetId="21">
         <row r="53">
           <cell r="D53">
             <v>44200</v>
@@ -15971,11 +15982,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
       <sheetData sheetId="32"/>
@@ -16001,6 +16010,8 @@
       <sheetData sheetId="52"/>
       <sheetData sheetId="53"/>
       <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -16302,17 +16313,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F7A2CE-401E-4D8F-9610-EBB630AE369D}">
-  <dimension ref="A1:W434"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C7BD07-3203-41B7-87EE-20EAAF40B594}">
+  <dimension ref="A1:W431"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C261" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C295" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I287" sqref="I287"/>
+      <selection pane="bottomRight" activeCell="W295" sqref="W295"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="59" customWidth="1"/>
@@ -16324,7 +16335,7 @@
     <col min="17" max="18" width="10.85546875" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="6" customFormat="1" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16380,7 +16391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="54.95" customHeight="1" thickBot="1">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -16436,7 +16447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="19">
         <v>44209</v>
       </c>
@@ -16480,7 +16491,7 @@
       <c r="Q3" s="32"/>
       <c r="R3" s="32"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="25">
         <v>44211</v>
       </c>
@@ -16524,7 +16535,7 @@
       <c r="Q4" s="32"/>
       <c r="R4" s="32"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="25">
         <v>44215</v>
       </c>
@@ -16568,7 +16579,7 @@
       <c r="Q5" s="32"/>
       <c r="R5" s="32"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="25">
         <v>44221</v>
       </c>
@@ -16612,7 +16623,7 @@
       <c r="Q6" s="32"/>
       <c r="R6" s="32"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="25">
         <v>44223</v>
       </c>
@@ -16656,7 +16667,7 @@
       <c r="Q7" s="32"/>
       <c r="R7" s="32"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="25">
         <v>44227</v>
       </c>
@@ -16700,7 +16711,7 @@
       <c r="Q8" s="32"/>
       <c r="R8" s="32"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="25">
         <v>44233</v>
       </c>
@@ -16744,7 +16755,7 @@
       <c r="Q9" s="32"/>
       <c r="R9" s="32"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="25">
         <v>44238</v>
       </c>
@@ -16788,7 +16799,7 @@
       <c r="Q10" s="32"/>
       <c r="R10" s="32"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="25">
         <v>44239</v>
       </c>
@@ -16832,7 +16843,7 @@
       <c r="Q11" s="32"/>
       <c r="R11" s="32"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="25">
         <v>44245</v>
       </c>
@@ -16876,7 +16887,7 @@
       <c r="Q12" s="32"/>
       <c r="R12" s="32"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="25">
         <v>44249</v>
       </c>
@@ -16920,7 +16931,7 @@
       <c r="Q13" s="32"/>
       <c r="R13" s="32"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="25">
         <v>44251</v>
       </c>
@@ -16964,7 +16975,7 @@
       <c r="Q14" s="32"/>
       <c r="R14" s="32"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="25">
         <v>44263</v>
       </c>
@@ -17008,7 +17019,7 @@
       <c r="Q15" s="32"/>
       <c r="R15" s="32"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="25">
         <v>44269</v>
       </c>
@@ -17052,7 +17063,7 @@
       <c r="Q16" s="32"/>
       <c r="R16" s="32"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" s="25">
         <v>44276</v>
       </c>
@@ -17096,7 +17107,7 @@
       <c r="Q17" s="32"/>
       <c r="R17" s="32"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" s="25">
         <v>44280</v>
       </c>
@@ -17140,7 +17151,7 @@
       <c r="Q18" s="32"/>
       <c r="R18" s="32"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" s="25">
         <v>44287</v>
       </c>
@@ -17190,7 +17201,7 @@
         <v>3.7685634324190816E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" s="25">
         <v>44287</v>
       </c>
@@ -17240,7 +17251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" s="25">
         <v>44288</v>
       </c>
@@ -17290,7 +17301,7 @@
         <v>7.8778340148360826E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" s="25">
         <v>44288</v>
       </c>
@@ -17340,7 +17351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" s="25">
         <v>44289</v>
       </c>
@@ -17390,7 +17401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" s="25">
         <v>44289</v>
       </c>
@@ -17440,7 +17451,7 @@
         <v>2.4941172152434788E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25" s="25">
         <v>44290</v>
       </c>
@@ -17490,7 +17501,7 @@
         <v>2.3749825220687561E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26" s="25">
         <v>44290</v>
       </c>
@@ -17540,7 +17551,7 @@
         <v>1.083708541625047E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27" s="25">
         <v>44291</v>
       </c>
@@ -17590,7 +17601,7 @@
         <v>5.7628355248744281E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28" s="25">
         <v>44291</v>
       </c>
@@ -17640,7 +17651,7 @@
         <v>3.5637887095144247E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29" s="25">
         <v>44292</v>
       </c>
@@ -17690,7 +17701,7 @@
         <v>1.2789175901687762E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30" s="25">
         <v>44292</v>
       </c>
@@ -17740,7 +17751,7 @@
         <v>1.7210560386297619E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31" s="25">
         <v>44295</v>
       </c>
@@ -17784,7 +17795,7 @@
       <c r="Q31" s="32"/>
       <c r="R31" s="32"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="A32" s="25">
         <v>44304</v>
       </c>
@@ -17828,7 +17839,7 @@
       <c r="Q32" s="32"/>
       <c r="R32" s="32"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33" s="25">
         <v>44305</v>
       </c>
@@ -17872,7 +17883,7 @@
       <c r="Q33" s="32"/>
       <c r="R33" s="32"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34" s="25">
         <v>44308</v>
       </c>
@@ -17916,7 +17927,7 @@
       <c r="Q34" s="32"/>
       <c r="R34" s="32"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="A35" s="25">
         <v>44312</v>
       </c>
@@ -17960,7 +17971,7 @@
       <c r="Q35" s="32"/>
       <c r="R35" s="32"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36" s="25">
         <v>44315</v>
       </c>
@@ -18004,7 +18015,7 @@
       <c r="Q36" s="32"/>
       <c r="R36" s="32"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37" s="25">
         <v>44321</v>
       </c>
@@ -18048,7 +18059,7 @@
       <c r="Q37" s="32"/>
       <c r="R37" s="32"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="A38" s="25">
         <v>44324</v>
       </c>
@@ -18092,7 +18103,7 @@
       <c r="Q38" s="32"/>
       <c r="R38" s="32"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39" s="25">
         <v>44325</v>
       </c>
@@ -18136,7 +18147,7 @@
       <c r="Q39" s="32"/>
       <c r="R39" s="32"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40" s="25">
         <v>44328</v>
       </c>
@@ -18180,7 +18191,7 @@
       <c r="Q40" s="32"/>
       <c r="R40" s="32"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41" s="25">
         <v>44332</v>
       </c>
@@ -18224,7 +18235,7 @@
       <c r="Q41" s="32"/>
       <c r="R41" s="32"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42" s="25">
         <v>44333</v>
       </c>
@@ -18268,7 +18279,7 @@
       <c r="Q42" s="32"/>
       <c r="R42" s="32"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18">
       <c r="A43" s="25">
         <v>44334</v>
       </c>
@@ -18312,7 +18323,7 @@
       <c r="Q43" s="32"/>
       <c r="R43" s="32"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18">
       <c r="A44" s="25">
         <v>44335</v>
       </c>
@@ -18356,7 +18367,7 @@
       <c r="Q44" s="32"/>
       <c r="R44" s="32"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18">
       <c r="A45" s="25">
         <v>44336</v>
       </c>
@@ -18400,7 +18411,7 @@
       <c r="Q45" s="32"/>
       <c r="R45" s="32"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18">
       <c r="A46" s="25">
         <v>44339</v>
       </c>
@@ -18444,7 +18455,7 @@
       <c r="Q46" s="32"/>
       <c r="R46" s="32"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18">
       <c r="A47" s="25">
         <v>44340</v>
       </c>
@@ -18488,7 +18499,7 @@
       <c r="Q47" s="32"/>
       <c r="R47" s="32"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18">
       <c r="A48" s="25">
         <v>44342</v>
       </c>
@@ -18532,7 +18543,7 @@
       <c r="Q48" s="32"/>
       <c r="R48" s="32"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18">
       <c r="A49" s="25">
         <v>44343</v>
       </c>
@@ -18576,7 +18587,7 @@
       <c r="Q49" s="32"/>
       <c r="R49" s="32"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18">
       <c r="A50" s="25">
         <v>44346</v>
       </c>
@@ -18620,7 +18631,7 @@
       <c r="Q50" s="32"/>
       <c r="R50" s="32"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18">
       <c r="A51" s="25">
         <v>44347</v>
       </c>
@@ -18664,7 +18675,7 @@
       <c r="Q51" s="32"/>
       <c r="R51" s="32"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18">
       <c r="A52" s="40">
         <v>44348</v>
       </c>
@@ -18720,7 +18731,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18">
       <c r="A53" s="25">
         <v>44349</v>
       </c>
@@ -18764,7 +18775,7 @@
       <c r="Q53" s="32"/>
       <c r="R53" s="32"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18">
       <c r="A54" s="25">
         <v>44350</v>
       </c>
@@ -18808,7 +18819,7 @@
       <c r="Q54" s="32"/>
       <c r="R54" s="32"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18">
       <c r="A55" s="25">
         <v>44351</v>
       </c>
@@ -18852,7 +18863,7 @@
       <c r="Q55" s="32"/>
       <c r="R55" s="32"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18">
       <c r="A56" s="25">
         <v>44352</v>
       </c>
@@ -18896,7 +18907,7 @@
       <c r="Q56" s="32"/>
       <c r="R56" s="32"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18">
       <c r="A57" s="25">
         <v>44353</v>
       </c>
@@ -18938,7 +18949,7 @@
       <c r="Q57" s="32"/>
       <c r="R57" s="32"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18">
       <c r="A58" s="25">
         <v>44354</v>
       </c>
@@ -18982,7 +18993,7 @@
       <c r="Q58" s="32"/>
       <c r="R58" s="32"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18">
       <c r="A59" s="40">
         <v>44354</v>
       </c>
@@ -19032,7 +19043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18">
       <c r="A60" s="25">
         <v>44355</v>
       </c>
@@ -19076,7 +19087,7 @@
       <c r="Q60" s="32"/>
       <c r="R60" s="32"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18">
       <c r="A61" s="40">
         <v>44355</v>
       </c>
@@ -19126,7 +19137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18">
       <c r="A62" s="25">
         <v>44356</v>
       </c>
@@ -19170,7 +19181,7 @@
       <c r="Q62" s="32"/>
       <c r="R62" s="32"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18">
       <c r="A63" s="25">
         <v>44357</v>
       </c>
@@ -19214,7 +19225,7 @@
       <c r="Q63" s="32"/>
       <c r="R63" s="32"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18">
       <c r="A64" s="25">
         <v>44357</v>
       </c>
@@ -19258,7 +19269,7 @@
       <c r="Q64" s="32"/>
       <c r="R64" s="32"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18">
       <c r="A65" s="25">
         <v>44358</v>
       </c>
@@ -19302,7 +19313,7 @@
       <c r="Q65" s="32"/>
       <c r="R65" s="32"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18">
       <c r="A66" s="25">
         <v>44359</v>
       </c>
@@ -19346,7 +19357,7 @@
       <c r="Q66" s="32"/>
       <c r="R66" s="32"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18">
       <c r="A67" s="40">
         <v>44359</v>
       </c>
@@ -19400,7 +19411,7 @@
       </c>
       <c r="R67" s="53"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18">
       <c r="A68" s="25">
         <v>44360</v>
       </c>
@@ -19444,7 +19455,7 @@
       <c r="Q68" s="32"/>
       <c r="R68" s="32"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18">
       <c r="A69" s="25">
         <v>44361</v>
       </c>
@@ -19488,7 +19499,7 @@
       <c r="Q69" s="32"/>
       <c r="R69" s="32"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18">
       <c r="A70" s="40">
         <v>44362</v>
       </c>
@@ -19538,7 +19549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18">
       <c r="A71" s="40">
         <v>44363</v>
       </c>
@@ -19588,7 +19599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18">
       <c r="A72" s="40">
         <v>44363</v>
       </c>
@@ -19640,7 +19651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18">
       <c r="A73" s="40">
         <v>44364</v>
       </c>
@@ -19692,7 +19703,7 @@
       </c>
       <c r="R73" s="53"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18">
       <c r="A74" s="40">
         <v>44365</v>
       </c>
@@ -19742,7 +19753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18">
       <c r="A75" s="40">
         <v>44365</v>
       </c>
@@ -19794,7 +19805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18">
       <c r="A76" s="40">
         <v>44366</v>
       </c>
@@ -19844,7 +19855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18">
       <c r="A77" s="40">
         <v>44367</v>
       </c>
@@ -19894,7 +19905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18">
       <c r="A78" s="40">
         <v>44368</v>
       </c>
@@ -19944,7 +19955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18">
       <c r="A79" s="40">
         <v>44369</v>
       </c>
@@ -19994,7 +20005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18">
       <c r="A80" s="40">
         <v>44370</v>
       </c>
@@ -20044,7 +20055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23">
       <c r="A81" s="40">
         <v>44371</v>
       </c>
@@ -20092,7 +20103,7 @@
       </c>
       <c r="R81" s="53"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23">
       <c r="A82" s="25">
         <v>44372</v>
       </c>
@@ -20136,7 +20147,7 @@
       <c r="Q82" s="32"/>
       <c r="R82" s="32"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23">
       <c r="A83" s="40">
         <v>44372</v>
       </c>
@@ -20189,7 +20200,7 @@
       <c r="V83" s="57"/>
       <c r="W83" s="58"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23">
       <c r="A84" s="40">
         <v>44373</v>
       </c>
@@ -20197,6 +20208,7 @@
         <v>62</v>
       </c>
       <c r="C84" s="59">
+        <f>AVERAGE(C430:C431)</f>
         <v>0.14284919019710685</v>
       </c>
       <c r="D84" s="43">
@@ -20206,6 +20218,7 @@
         <v>62</v>
       </c>
       <c r="F84" s="60">
+        <f>AVERAGE(F430:F431)</f>
         <v>0.46874351487796423</v>
       </c>
       <c r="G84" s="40">
@@ -20221,6 +20234,7 @@
         <v>62</v>
       </c>
       <c r="O84" s="59">
+        <f>AVERAGE(O430:O431)</f>
         <v>0.5</v>
       </c>
       <c r="P84" s="51">
@@ -20230,10 +20244,11 @@
         <v>62</v>
       </c>
       <c r="R84" s="62">
+        <f>AVERAGE(R430:R431)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23">
       <c r="A85" s="40">
         <v>44374</v>
       </c>
@@ -20285,7 +20300,7 @@
       <c r="U85" s="56"/>
       <c r="V85" s="63"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23">
       <c r="A86" s="40">
         <v>44375</v>
       </c>
@@ -20342,7 +20357,7 @@
       </c>
       <c r="U86" s="56"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23">
       <c r="A87" s="40">
         <v>44375</v>
       </c>
@@ -20393,7 +20408,7 @@
       </c>
       <c r="U87" s="56"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23">
       <c r="A88" s="40">
         <v>44377</v>
       </c>
@@ -20448,7 +20463,7 @@
       <c r="R88" s="53"/>
       <c r="U88" s="56"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23">
       <c r="A89" s="40">
         <v>44378</v>
       </c>
@@ -20503,7 +20518,7 @@
       <c r="R89" s="53"/>
       <c r="U89" s="56"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23">
       <c r="A90" s="40">
         <v>44379</v>
       </c>
@@ -20560,7 +20575,7 @@
       </c>
       <c r="U90" s="56"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23">
       <c r="A91" s="40">
         <v>44380</v>
       </c>
@@ -20616,7 +20631,7 @@
       <c r="U91" s="56"/>
       <c r="V91" s="63"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23">
       <c r="A92" s="40">
         <v>44381</v>
       </c>
@@ -20668,7 +20683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23">
       <c r="A93" s="40">
         <v>44382</v>
       </c>
@@ -20723,7 +20738,7 @@
       <c r="R93" s="53"/>
       <c r="U93" s="56"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23">
       <c r="A94" s="40">
         <v>44382</v>
       </c>
@@ -20775,7 +20790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23">
       <c r="A95" s="40">
         <v>44383</v>
       </c>
@@ -20832,7 +20847,7 @@
       <c r="V95" s="63"/>
       <c r="W95" s="58"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23">
       <c r="A96" s="40">
         <v>44384</v>
       </c>
@@ -20885,7 +20900,7 @@
       <c r="R96" s="53"/>
       <c r="U96" s="56"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21">
       <c r="A97" s="40">
         <v>44385</v>
       </c>
@@ -20940,7 +20955,7 @@
       <c r="R97" s="53"/>
       <c r="U97" s="56"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21">
       <c r="A98" s="40">
         <v>44387</v>
       </c>
@@ -20994,7 +21009,7 @@
       </c>
       <c r="R98" s="53"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21">
       <c r="A99" s="40">
         <v>44388</v>
       </c>
@@ -21048,7 +21063,7 @@
       </c>
       <c r="R99" s="53"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21">
       <c r="A100" s="40">
         <v>44390</v>
       </c>
@@ -21104,7 +21119,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21">
       <c r="A101" s="40">
         <v>44391</v>
       </c>
@@ -21160,7 +21175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21">
       <c r="A102" s="40">
         <v>44393</v>
       </c>
@@ -21216,7 +21231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21">
       <c r="A103" s="40">
         <v>44394</v>
       </c>
@@ -21272,7 +21287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21">
       <c r="A104" s="40">
         <v>44396</v>
       </c>
@@ -21328,7 +21343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21">
       <c r="A105" s="40">
         <v>44397</v>
       </c>
@@ -21384,7 +21399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21">
       <c r="A106" s="40">
         <v>44399</v>
       </c>
@@ -21440,7 +21455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21">
       <c r="A107" s="40">
         <v>44400</v>
       </c>
@@ -21496,7 +21511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21">
       <c r="A108" s="40">
         <v>44402</v>
       </c>
@@ -21552,7 +21567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21">
       <c r="A109" s="40">
         <v>44403</v>
       </c>
@@ -21608,7 +21623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21">
       <c r="A110" s="40">
         <v>44404</v>
       </c>
@@ -21664,7 +21679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21">
       <c r="A111" s="40">
         <v>44405</v>
       </c>
@@ -21714,7 +21729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21">
       <c r="A112" s="40">
         <v>44406</v>
       </c>
@@ -21764,7 +21779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18">
       <c r="A113" s="40">
         <v>44408</v>
       </c>
@@ -21814,7 +21829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18">
       <c r="A114" s="40">
         <v>44410</v>
       </c>
@@ -21864,7 +21879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18">
       <c r="A115" s="40">
         <v>44411</v>
       </c>
@@ -21914,7 +21929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18">
       <c r="A116" s="40">
         <v>44413</v>
       </c>
@@ -21964,7 +21979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18">
       <c r="A117" s="40">
         <v>44414</v>
       </c>
@@ -22014,7 +22029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18">
       <c r="A118" s="40">
         <v>44415</v>
       </c>
@@ -22064,7 +22079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18">
       <c r="A119" s="40">
         <v>44417</v>
       </c>
@@ -22114,7 +22129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18">
       <c r="A120" s="40">
         <v>44418</v>
       </c>
@@ -22164,7 +22179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18">
       <c r="A121" s="40">
         <v>44419</v>
       </c>
@@ -22187,7 +22202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18">
       <c r="A122" s="40">
         <v>44420</v>
       </c>
@@ -22210,7 +22225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18">
       <c r="A123" s="40">
         <v>44421</v>
       </c>
@@ -22233,7 +22248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18">
       <c r="A124" s="40">
         <v>44422</v>
       </c>
@@ -22256,7 +22271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18">
       <c r="A125" s="40">
         <v>44423</v>
       </c>
@@ -22279,7 +22294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18">
       <c r="A126" s="40">
         <v>44424</v>
       </c>
@@ -22302,7 +22317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18">
       <c r="A127" s="40">
         <v>44425</v>
       </c>
@@ -22325,7 +22340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18">
       <c r="A128" s="40">
         <v>44426</v>
       </c>
@@ -22348,7 +22363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18">
       <c r="A129" s="40">
         <v>44427</v>
       </c>
@@ -22371,7 +22386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18">
       <c r="A130" s="40">
         <v>44428</v>
       </c>
@@ -22394,7 +22409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18">
       <c r="A131" s="40">
         <v>44429</v>
       </c>
@@ -22417,7 +22432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18">
       <c r="A132" s="40">
         <v>44430</v>
       </c>
@@ -22440,7 +22455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18">
       <c r="A133" s="40">
         <v>44431</v>
       </c>
@@ -22463,7 +22478,7 @@
         <v>1.3304437408116442E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18">
       <c r="A134" s="40">
         <v>44432</v>
       </c>
@@ -22486,7 +22501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18">
       <c r="A135" s="40">
         <v>44433</v>
       </c>
@@ -22509,7 +22524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18">
       <c r="A136" s="40">
         <v>44434</v>
       </c>
@@ -22532,7 +22547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18">
       <c r="A137" s="40">
         <v>44435</v>
       </c>
@@ -22555,7 +22570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18">
       <c r="A138" s="40">
         <v>44436</v>
       </c>
@@ -22578,7 +22593,7 @@
         <v>7.6648557276852479E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18">
       <c r="A139" s="40">
         <v>44437</v>
       </c>
@@ -22601,7 +22616,7 @@
         <v>1.5340240351155632E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18">
       <c r="A140" s="40">
         <v>44438</v>
       </c>
@@ -22624,7 +22639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18">
       <c r="A141" s="40">
         <v>44439</v>
       </c>
@@ -22647,7 +22662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18">
       <c r="A142" s="40">
         <v>44440</v>
       </c>
@@ -22670,7 +22685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18">
       <c r="A143" s="40">
         <v>44441</v>
       </c>
@@ -22693,7 +22708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18">
       <c r="A144" s="40">
         <v>44442</v>
       </c>
@@ -22716,7 +22731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18">
       <c r="A145" s="40">
         <v>44443</v>
       </c>
@@ -22739,7 +22754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18">
       <c r="A146" s="40">
         <v>44444</v>
       </c>
@@ -22762,7 +22777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18">
       <c r="A147" s="40">
         <v>44445</v>
       </c>
@@ -22785,7 +22800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18">
       <c r="A148" s="40">
         <v>44446</v>
       </c>
@@ -22808,7 +22823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18">
       <c r="A149" s="40">
         <v>44447</v>
       </c>
@@ -22829,7 +22844,7 @@
       </c>
       <c r="R149" s="53"/>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18">
       <c r="A150" s="40">
         <v>44448</v>
       </c>
@@ -22852,7 +22867,7 @@
         <v>6.7280937029525886E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18">
       <c r="A151" s="40">
         <v>44448</v>
       </c>
@@ -22875,7 +22890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18">
       <c r="A152" s="40">
         <v>44449</v>
       </c>
@@ -22898,7 +22913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18">
       <c r="A153" s="40">
         <v>44450</v>
       </c>
@@ -22921,7 +22936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18">
       <c r="A154" s="40">
         <v>44451</v>
       </c>
@@ -22944,7 +22959,7 @@
         <v>1.5325977122561531E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18">
       <c r="A155" s="40">
         <v>44452</v>
       </c>
@@ -22967,7 +22982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18">
       <c r="A156" s="40">
         <v>44453</v>
       </c>
@@ -22990,7 +23005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18">
       <c r="A157" s="40">
         <v>44454</v>
       </c>
@@ -23011,7 +23026,7 @@
       </c>
       <c r="R157" s="53"/>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18">
       <c r="A158" s="40">
         <v>44455</v>
       </c>
@@ -23034,7 +23049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18">
       <c r="A159" s="40">
         <v>44456</v>
       </c>
@@ -23057,7 +23072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18">
       <c r="A160" s="40">
         <v>44457</v>
       </c>
@@ -23080,7 +23095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18">
       <c r="A161" s="40">
         <v>44458</v>
       </c>
@@ -23103,7 +23118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18">
       <c r="A162" s="40">
         <v>44459</v>
       </c>
@@ -23126,7 +23141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18">
       <c r="A163" s="40">
         <v>44460</v>
       </c>
@@ -23149,7 +23164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18">
       <c r="A164" s="40">
         <v>44462</v>
       </c>
@@ -23172,7 +23187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18">
       <c r="A165" s="40">
         <v>44463</v>
       </c>
@@ -23195,7 +23210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18">
       <c r="A166" s="40">
         <v>44464</v>
       </c>
@@ -23218,7 +23233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18">
       <c r="A167" s="40">
         <v>44465</v>
       </c>
@@ -23241,7 +23256,7 @@
         <v>7.4360578988379453E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18">
       <c r="A168" s="40">
         <v>44466</v>
       </c>
@@ -23264,7 +23279,7 @@
         <v>3.7157334480993143E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18">
       <c r="A169" s="40">
         <v>44467</v>
       </c>
@@ -23287,7 +23302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18">
       <c r="A170" s="40">
         <v>44468</v>
       </c>
@@ -23310,7 +23325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18">
       <c r="A171" s="40">
         <v>44469</v>
       </c>
@@ -23333,7 +23348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18">
       <c r="A172" s="40">
         <v>44470</v>
       </c>
@@ -23356,7 +23371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18">
       <c r="A173" s="40">
         <v>44471</v>
       </c>
@@ -23379,7 +23394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18">
       <c r="A174" s="40">
         <v>44472</v>
       </c>
@@ -23402,7 +23417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18">
       <c r="A175" s="40">
         <v>44473</v>
       </c>
@@ -23425,7 +23440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18">
       <c r="A176" s="40">
         <v>44474</v>
       </c>
@@ -23448,7 +23463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18">
       <c r="A177" s="40">
         <v>44475</v>
       </c>
@@ -23471,7 +23486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18">
       <c r="A178" s="40">
         <v>44476</v>
       </c>
@@ -23494,7 +23509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18">
       <c r="A179" s="40">
         <v>44477</v>
       </c>
@@ -23517,7 +23532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18">
       <c r="A180" s="40">
         <v>44478</v>
       </c>
@@ -23540,7 +23555,7 @@
         <v>5.2366434736345526E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18">
       <c r="A181" s="40">
         <v>44479</v>
       </c>
@@ -23563,7 +23578,7 @@
         <v>5.2921108672468074E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18">
       <c r="A182" s="40">
         <v>44480</v>
       </c>
@@ -23586,7 +23601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18">
       <c r="A183" s="40">
         <v>44481</v>
       </c>
@@ -23609,7 +23624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18">
       <c r="A184" s="40">
         <v>44482</v>
       </c>
@@ -23632,7 +23647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18">
       <c r="A185" s="40">
         <v>44483</v>
       </c>
@@ -23655,7 +23670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18">
       <c r="A186" s="40">
         <v>44484</v>
       </c>
@@ -23678,7 +23693,7 @@
         <v>4.3019664078992942E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18">
       <c r="A187" s="40">
         <v>44485</v>
       </c>
@@ -23701,7 +23716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18">
       <c r="A188" s="40">
         <v>44486</v>
       </c>
@@ -23724,7 +23739,7 @@
         <v>1.6225736780322922E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18">
       <c r="A189" s="40">
         <v>44487</v>
       </c>
@@ -23747,7 +23762,7 @@
         <v>6.0304578615750096E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18">
       <c r="A190" s="40">
         <v>44488</v>
       </c>
@@ -23770,7 +23785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18">
       <c r="A191" s="40">
         <v>44489</v>
       </c>
@@ -23785,7 +23800,7 @@
       </c>
       <c r="P191" s="32"/>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18">
       <c r="A192" s="40">
         <v>44490</v>
       </c>
@@ -23800,7 +23815,7 @@
       </c>
       <c r="P192" s="32"/>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16">
       <c r="A193" s="40">
         <v>44491</v>
       </c>
@@ -23815,7 +23830,7 @@
       </c>
       <c r="P193" s="32"/>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16">
       <c r="A194" s="40">
         <v>44492</v>
       </c>
@@ -23830,7 +23845,7 @@
       </c>
       <c r="P194" s="32"/>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16">
       <c r="A195" s="40">
         <v>44493</v>
       </c>
@@ -23845,7 +23860,7 @@
       </c>
       <c r="P195" s="32"/>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16">
       <c r="A196" s="40">
         <v>44494</v>
       </c>
@@ -23860,7 +23875,7 @@
       </c>
       <c r="P196" s="32"/>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16">
       <c r="A197" s="40">
         <v>44495</v>
       </c>
@@ -23875,7 +23890,7 @@
       </c>
       <c r="P197" s="32"/>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16">
       <c r="A198" s="40">
         <v>44496</v>
       </c>
@@ -23890,7 +23905,7 @@
       </c>
       <c r="P198" s="32"/>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16">
       <c r="A199" s="40">
         <v>44497</v>
       </c>
@@ -23905,7 +23920,7 @@
       </c>
       <c r="P199" s="32"/>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16">
       <c r="A200" s="40">
         <v>44498</v>
       </c>
@@ -23920,7 +23935,7 @@
       </c>
       <c r="P200" s="32"/>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16">
       <c r="A201" s="40">
         <v>44499</v>
       </c>
@@ -23935,7 +23950,7 @@
       </c>
       <c r="P201" s="32"/>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16">
       <c r="A202" s="40">
         <v>44500</v>
       </c>
@@ -23950,7 +23965,7 @@
       </c>
       <c r="P202" s="32"/>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16">
       <c r="A203" s="40">
         <v>44501</v>
       </c>
@@ -23965,7 +23980,7 @@
       </c>
       <c r="P203" s="32"/>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16">
       <c r="A204" s="40">
         <v>44502</v>
       </c>
@@ -23980,7 +23995,7 @@
       </c>
       <c r="P204" s="32"/>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16">
       <c r="A205" s="40">
         <v>44503</v>
       </c>
@@ -23995,7 +24010,7 @@
       </c>
       <c r="P205" s="32"/>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16">
       <c r="A206" s="40">
         <v>44504</v>
       </c>
@@ -24010,7 +24025,7 @@
       </c>
       <c r="P206" s="32"/>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16">
       <c r="A207" s="40">
         <v>44505</v>
       </c>
@@ -24025,7 +24040,7 @@
       </c>
       <c r="P207" s="32"/>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16">
       <c r="A208" s="40">
         <v>44506</v>
       </c>
@@ -24040,7 +24055,7 @@
       </c>
       <c r="P208" s="32"/>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19">
       <c r="A209" s="40">
         <v>44507</v>
       </c>
@@ -24055,7 +24070,7 @@
       </c>
       <c r="P209" s="32"/>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19">
       <c r="A210" s="40">
         <v>44508</v>
       </c>
@@ -24070,7 +24085,7 @@
       </c>
       <c r="P210" s="32"/>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19">
       <c r="A211" s="40">
         <v>44509</v>
       </c>
@@ -24085,7 +24100,7 @@
       </c>
       <c r="P211" s="32"/>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19">
       <c r="A212" s="40">
         <v>44510</v>
       </c>
@@ -24100,7 +24115,7 @@
       </c>
       <c r="P212" s="32"/>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19">
       <c r="A213" s="40">
         <v>44511</v>
       </c>
@@ -24115,7 +24130,7 @@
       </c>
       <c r="P213" s="32"/>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19">
       <c r="A214" s="40">
         <v>44512</v>
       </c>
@@ -24130,7 +24145,7 @@
       </c>
       <c r="P214" s="32"/>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19">
       <c r="A215" s="40">
         <v>44513</v>
       </c>
@@ -24145,7 +24160,7 @@
       </c>
       <c r="P215" s="32"/>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19">
       <c r="A216" s="40">
         <v>44514</v>
       </c>
@@ -24160,7 +24175,7 @@
       </c>
       <c r="P216" s="32"/>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19">
       <c r="A217" s="40">
         <v>44515</v>
       </c>
@@ -24173,7 +24188,7 @@
       <c r="O217" s="42"/>
       <c r="P217" s="32"/>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19">
       <c r="A218" s="40">
         <v>44516</v>
       </c>
@@ -24188,7 +24203,7 @@
       </c>
       <c r="P218" s="32"/>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19">
       <c r="A219" s="40">
         <v>44517</v>
       </c>
@@ -24211,7 +24226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19">
       <c r="A220" s="40">
         <v>44518</v>
       </c>
@@ -24234,7 +24249,7 @@
         <v>2.3246852070966991E-3</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19">
       <c r="A221" s="40">
         <v>44518</v>
       </c>
@@ -24258,7 +24273,7 @@
       </c>
       <c r="S221" s="68"/>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19">
       <c r="A222" s="40">
         <v>44519</v>
       </c>
@@ -24281,7 +24296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19">
       <c r="A223" s="40">
         <v>44520</v>
       </c>
@@ -24304,7 +24319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19">
       <c r="A224" s="40">
         <v>44521</v>
       </c>
@@ -24327,7 +24342,7 @@
         <v>3.8172157193226302E-3</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19">
       <c r="A225" s="40">
         <v>44522</v>
       </c>
@@ -24350,7 +24365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19">
       <c r="A226" s="40">
         <v>44523</v>
       </c>
@@ -24373,7 +24388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19">
       <c r="A227" s="40">
         <v>44523</v>
       </c>
@@ -24397,7 +24412,7 @@
       </c>
       <c r="S227" s="68"/>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19">
       <c r="A228" s="40">
         <v>44524</v>
       </c>
@@ -24420,7 +24435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19">
       <c r="A229" s="40">
         <v>44525</v>
       </c>
@@ -24443,7 +24458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19">
       <c r="A230" s="40">
         <v>44526</v>
       </c>
@@ -24466,7 +24481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19">
       <c r="A231" s="40">
         <v>44527</v>
       </c>
@@ -24489,7 +24504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19">
       <c r="A232" s="40">
         <v>44527</v>
       </c>
@@ -24513,7 +24528,7 @@
       </c>
       <c r="S232" s="68"/>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19">
       <c r="A233" s="40">
         <v>44528</v>
       </c>
@@ -24536,7 +24551,7 @@
         <v>3.2630896847402895E-3</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19">
       <c r="A234" s="40">
         <v>44529</v>
       </c>
@@ -24559,7 +24574,7 @@
         <v>2.8623331357122625E-3</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19">
       <c r="A235" s="40">
         <v>44530</v>
       </c>
@@ -24582,7 +24597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19">
       <c r="A236" s="40">
         <v>44531</v>
       </c>
@@ -24605,7 +24620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19">
       <c r="A237" s="40">
         <v>44531</v>
       </c>
@@ -24629,7 +24644,7 @@
       </c>
       <c r="S237" s="68"/>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19">
       <c r="A238" s="40">
         <v>44532</v>
       </c>
@@ -24652,7 +24667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19">
       <c r="A239" s="40">
         <v>44533</v>
       </c>
@@ -24675,7 +24690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19">
       <c r="A240" s="40">
         <v>44533</v>
       </c>
@@ -24699,7 +24714,7 @@
       </c>
       <c r="S240" s="68"/>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19">
       <c r="A241" s="40">
         <v>44534</v>
       </c>
@@ -24731,7 +24746,7 @@
         <v>2.9136874415414378E-3</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19">
       <c r="A242" s="40">
         <v>44535</v>
       </c>
@@ -24757,7 +24772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19">
       <c r="A243" s="40">
         <v>44536</v>
       </c>
@@ -24783,7 +24798,7 @@
         <v>5.1789585975358246E-3</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19">
       <c r="A244" s="40">
         <v>44536</v>
       </c>
@@ -24810,7 +24825,7 @@
       </c>
       <c r="S244" s="68"/>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19">
       <c r="A245" s="40">
         <v>44537</v>
       </c>
@@ -24836,7 +24851,7 @@
         <v>3.2609323989646411E-3</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19">
       <c r="A246" s="40">
         <v>44538</v>
       </c>
@@ -24868,7 +24883,7 @@
         <v>8.2973728194707629E-3</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19">
       <c r="A247" s="40">
         <v>44539</v>
       </c>
@@ -24900,7 +24915,7 @@
         <v>7.4619434476835963E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19">
       <c r="A248" s="40">
         <v>44540</v>
       </c>
@@ -24926,7 +24941,7 @@
         <v>5.7096523049050309E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19">
       <c r="A249" s="40">
         <v>44541</v>
       </c>
@@ -24952,7 +24967,7 @@
         <v>1.5396436518139604E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19">
       <c r="A250" s="40">
         <v>44541</v>
       </c>
@@ -24979,7 +24994,7 @@
       </c>
       <c r="S250" s="68"/>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19">
       <c r="A251" s="40">
         <v>44542</v>
       </c>
@@ -25005,7 +25020,7 @@
         <v>2.3964548383000828E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19">
       <c r="A252" s="40">
         <v>44543</v>
       </c>
@@ -25037,7 +25052,7 @@
         <v>5.3050550217154824E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19">
       <c r="A253" s="40">
         <v>44544</v>
       </c>
@@ -25063,7 +25078,7 @@
         <v>6.1316160354260088E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19">
       <c r="A254" s="40">
         <v>44544</v>
       </c>
@@ -25090,7 +25105,7 @@
       </c>
       <c r="S254" s="68"/>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19">
       <c r="A255" s="40">
         <v>44545</v>
       </c>
@@ -25123,7 +25138,7 @@
       </c>
       <c r="S255" s="58"/>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19">
       <c r="A256" s="40">
         <v>44545</v>
       </c>
@@ -25149,7 +25164,7 @@
         <v>0.10980133516539468</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18">
       <c r="A257" s="40">
         <v>44546</v>
       </c>
@@ -25181,7 +25196,7 @@
         <v>0.13648971777180233</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18">
       <c r="A258" s="40">
         <v>44546</v>
       </c>
@@ -25207,7 +25222,7 @@
         <v>0.15997460845269665</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18">
       <c r="A259" s="40">
         <v>44547</v>
       </c>
@@ -25233,7 +25248,7 @@
         <v>0.15002127313324184</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18">
       <c r="A260" s="40">
         <v>44548</v>
       </c>
@@ -25265,7 +25280,7 @@
         <v>0.25487850693303038</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18">
       <c r="A261" s="40">
         <v>44548</v>
       </c>
@@ -25291,7 +25306,7 @@
         <v>0.26032962723001229</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18">
       <c r="A262" s="40">
         <v>44549</v>
       </c>
@@ -25323,7 +25338,7 @@
         <v>0.27918880574178645</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18">
       <c r="A263" s="40">
         <v>44549</v>
       </c>
@@ -25349,7 +25364,7 @@
         <v>0.27236597651438371</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18">
       <c r="A264" s="40">
         <v>44550</v>
       </c>
@@ -25375,7 +25390,7 @@
         <v>0.34797309600830595</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18">
       <c r="A265" s="40">
         <v>44551</v>
       </c>
@@ -25407,7 +25422,7 @@
         <v>0.4465889190134269</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18">
       <c r="A266" s="40">
         <v>44552</v>
       </c>
@@ -25439,7 +25454,7 @@
         <v>0.5470523467907652</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18">
       <c r="A267" s="40">
         <v>44553</v>
       </c>
@@ -25471,7 +25486,7 @@
         <v>0.60660897518581547</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18">
       <c r="A268" s="40">
         <v>44554</v>
       </c>
@@ -25497,7 +25512,7 @@
         <v>0.68242692524281467</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18">
       <c r="A269" s="40">
         <v>44555</v>
       </c>
@@ -25529,7 +25544,7 @@
         <v>0.65492924853083234</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18">
       <c r="A270" s="40">
         <v>44556</v>
       </c>
@@ -25561,7 +25576,7 @@
         <v>0.7108193025761923</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18">
       <c r="A271" s="40">
         <v>44557</v>
       </c>
@@ -25587,7 +25602,7 @@
         <v>0.80811708058958631</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18">
       <c r="A272" s="40">
         <v>44558</v>
       </c>
@@ -25619,7 +25634,7 @@
         <v>0.86581158763950672</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18">
       <c r="A273" s="40">
         <v>44559</v>
       </c>
@@ -25642,7 +25657,7 @@
         <v>0.83790699109171507</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18">
       <c r="A274" s="40">
         <v>44559</v>
       </c>
@@ -25674,7 +25689,7 @@
         <v>0.80679634686366286</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18">
       <c r="A275" s="40">
         <v>44560</v>
       </c>
@@ -25700,7 +25715,7 @@
         <v>0.86364921475826917</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18">
       <c r="A276" s="40">
         <v>44561</v>
       </c>
@@ -25732,7 +25747,7 @@
         <v>0.87766475824362244</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18">
       <c r="A277" s="40">
         <v>44562</v>
       </c>
@@ -25764,7 +25779,7 @@
         <v>0.86901880701477008</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18">
       <c r="A278" s="40">
         <v>44563</v>
       </c>
@@ -25796,7 +25811,7 @@
         <v>0.88697651681920975</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18">
       <c r="A279" s="40">
         <v>44564</v>
       </c>
@@ -25828,7 +25843,7 @@
         <v>0.89613158955392558</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18">
       <c r="A280" s="40">
         <v>44565</v>
       </c>
@@ -25860,7 +25875,7 @@
         <v>0.86830447264174082</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18">
       <c r="A281" s="40">
         <v>44566</v>
       </c>
@@ -25892,7 +25907,7 @@
         <v>0.94484281498387857</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18">
       <c r="A282" s="40">
         <v>44567</v>
       </c>
@@ -25924,7 +25939,7 @@
         <v>0.89996049513703225</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18">
       <c r="A283" s="40">
         <v>44568</v>
       </c>
@@ -25956,7 +25971,7 @@
         <v>0.95543530792605813</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18">
       <c r="A284" s="40">
         <v>44569</v>
       </c>
@@ -25988,7 +26003,7 @@
         <v>0.94121202739466725</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18">
       <c r="A285" s="40">
         <v>44570</v>
       </c>
@@ -26020,7 +26035,7 @@
         <v>0.96091600513256792</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18">
       <c r="A286" s="40">
         <v>44571</v>
       </c>
@@ -26052,7 +26067,7 @@
         <v>0.8848391414178568</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18">
       <c r="A287" s="40">
         <v>44572</v>
       </c>
@@ -26084,7 +26099,7 @@
         <v>0.93640554666313136</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18">
       <c r="A288" s="40">
         <v>44573</v>
       </c>
@@ -26116,7 +26131,7 @@
         <v>0.95347694160895746</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:22">
       <c r="A289" s="40">
         <v>44574</v>
       </c>
@@ -26148,7 +26163,7 @@
         <v>0.94720017749828145</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:22">
       <c r="A290" s="40">
         <v>44575</v>
       </c>
@@ -26182,7 +26197,7 @@
         <v>0.94925176655471044</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:22">
       <c r="A291" s="40">
         <v>44576</v>
       </c>
@@ -26215,8 +26230,14 @@
       <c r="R291" s="53">
         <v>0.97444632657020602</v>
       </c>
-    </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U291">
+        <v>0.9</v>
+      </c>
+      <c r="V291">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:22">
       <c r="A292" s="40">
         <v>44577</v>
       </c>
@@ -26249,8 +26270,14 @@
       <c r="R292" s="53">
         <v>0.95867965980320702</v>
       </c>
-    </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U292">
+        <v>1</v>
+      </c>
+      <c r="V292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:22">
       <c r="A293" s="40">
         <v>44578</v>
       </c>
@@ -26284,7 +26311,7 @@
         <v>0.97423834511487661</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:22">
       <c r="A294" s="40">
         <v>44579</v>
       </c>
@@ -26316,7 +26343,7 @@
         <v>0.95627134117625567</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:22">
       <c r="A295" s="40">
         <v>44580</v>
       </c>
@@ -26348,7 +26375,7 @@
         <v>0.97849837072761114</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:22">
       <c r="A296" s="40">
         <v>44581</v>
       </c>
@@ -26380,7 +26407,7 @@
         <v>0.96836564151405913</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:22">
       <c r="A297" s="40">
         <v>44582</v>
       </c>
@@ -26412,7 +26439,7 @@
         <v>0.96633701102796266</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:22">
       <c r="A298" s="40">
         <v>44583</v>
       </c>
@@ -26445,7 +26472,7 @@
         <v>0.99596673507918809</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:22">
       <c r="A299" s="40">
         <v>44584</v>
       </c>
@@ -26479,193 +26506,268 @@
         <v>0.97476308503781395</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:22">
+      <c r="A300" s="40">
+        <v>44585</v>
+      </c>
       <c r="C300"/>
-      <c r="G300" s="74"/>
-    </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D300" s="43">
+        <v>44585</v>
+      </c>
+      <c r="E300" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="F300" s="45">
+        <v>0.97505496912684653</v>
+      </c>
+      <c r="M300" s="40">
+        <v>44585</v>
+      </c>
+      <c r="N300" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="O300" s="42">
+        <v>1.2957206469942119E-2</v>
+      </c>
+      <c r="P300" s="51">
+        <v>44585</v>
+      </c>
+      <c r="Q300" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="R300" s="53">
+        <v>0.98587389190174024</v>
+      </c>
+    </row>
+    <row r="301" spans="1:22">
+      <c r="A301" s="40">
+        <v>44586</v>
+      </c>
       <c r="C301"/>
-      <c r="G301" s="74"/>
-    </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D301" s="43">
+        <v>44586</v>
+      </c>
+      <c r="E301" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="F301" s="45">
+        <v>0.96906270117046045</v>
+      </c>
+      <c r="M301" s="40">
+        <v>44586</v>
+      </c>
+      <c r="N301" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="O301" s="42">
+        <v>1.5959876990874842E-2</v>
+      </c>
+      <c r="P301" s="51">
+        <v>44586</v>
+      </c>
+      <c r="Q301" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="R301" s="53">
+        <v>0.97336639067680997</v>
+      </c>
+    </row>
+    <row r="302" spans="1:22">
+      <c r="A302" s="40">
+        <v>44587</v>
+      </c>
       <c r="C302"/>
-      <c r="G302" s="74"/>
-    </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D302" s="43">
+        <v>44587</v>
+      </c>
+      <c r="E302" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="F302" s="45">
+        <v>0.9837783143303378</v>
+      </c>
+      <c r="M302" s="40">
+        <v>44587</v>
+      </c>
+      <c r="N302" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="O302" s="42">
+        <v>5.7841357049316653E-3</v>
+      </c>
+      <c r="P302" s="51">
+        <v>44587</v>
+      </c>
+      <c r="Q302" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="R302" s="53">
+        <v>0.9917579846090897</v>
+      </c>
+    </row>
+    <row r="303" spans="1:22">
       <c r="C303"/>
       <c r="G303" s="74"/>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:22">
       <c r="C304"/>
       <c r="G304" s="74"/>
     </row>
-    <row r="305" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:10">
       <c r="C305"/>
       <c r="G305" s="74"/>
     </row>
-    <row r="306" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:10">
       <c r="C306"/>
       <c r="G306" s="74"/>
     </row>
-    <row r="307" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:10">
       <c r="C307"/>
       <c r="G307" s="74"/>
     </row>
-    <row r="308" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C308"/>
-      <c r="G308" s="74"/>
-    </row>
-    <row r="309" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C309"/>
-      <c r="G309" s="74"/>
-    </row>
-    <row r="310" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C310"/>
-      <c r="G310" s="74"/>
-    </row>
-    <row r="313" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J313" s="75" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="431" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B431" s="41" t="s">
-        <v>195</v>
+    <row r="310" spans="3:10">
+      <c r="J310" s="75" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="428" spans="2:18">
+      <c r="B428" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="C428" s="42">
+        <v>2.0344120801718359E-2</v>
+      </c>
+      <c r="D428" s="43">
+        <v>44370</v>
+      </c>
+      <c r="E428" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="F428" s="45">
+        <v>0.33332041069575918</v>
+      </c>
+      <c r="G428" s="40">
+        <v>44370</v>
+      </c>
+      <c r="H428" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I428" s="42">
+        <v>1.6361779116456095E-2</v>
+      </c>
+      <c r="J428" s="46">
+        <v>44370</v>
+      </c>
+      <c r="K428" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="L428" s="48" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N428" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="O428" s="42">
+        <v>1.1464873318903971E-2</v>
+      </c>
+      <c r="Q428" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="R428" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="2:18">
+      <c r="B430" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="C430" s="42">
+        <v>0.28569838039421369</v>
+      </c>
+      <c r="D430" s="43">
+        <v>44374</v>
+      </c>
+      <c r="E430" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F430" s="45">
+        <v>0.43748702975592846</v>
+      </c>
+      <c r="G430" s="40">
+        <v>44374</v>
+      </c>
+      <c r="H430" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="I430" s="42">
+        <v>0.44443767665469402</v>
+      </c>
+      <c r="J430" s="46">
+        <v>44374</v>
+      </c>
+      <c r="K430" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="L430" s="48" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N430" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="O430" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q430" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="R430" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="2:18">
+      <c r="B431" s="41">
+        <v>6274</v>
       </c>
       <c r="C431" s="42">
-        <v>2.0344120801718359E-2</v>
+        <v>0</v>
       </c>
       <c r="D431" s="43">
-        <v>44370</v>
-      </c>
-      <c r="E431" s="44" t="s">
-        <v>195</v>
+        <v>44374</v>
+      </c>
+      <c r="E431" s="44">
+        <v>6274</v>
       </c>
       <c r="F431" s="45">
-        <v>0.33332041069575918</v>
+        <v>0.5</v>
       </c>
       <c r="G431" s="40">
-        <v>44370</v>
-      </c>
-      <c r="H431" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="I431" s="42">
-        <v>1.6361779116456095E-2</v>
+        <v>44374</v>
+      </c>
+      <c r="H431" s="41">
+        <v>6274</v>
+      </c>
+      <c r="I431" s="42" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J431" s="46">
-        <v>44370</v>
-      </c>
-      <c r="K431" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="L431" s="48" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N431" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="O431" s="42">
-        <v>1.1464873318903971E-2</v>
-      </c>
-      <c r="Q431" s="52" t="s">
-        <v>195</v>
+        <v>44374</v>
+      </c>
+      <c r="K431" s="47">
+        <v>6274</v>
+      </c>
+      <c r="L431" s="48">
+        <v>0</v>
+      </c>
+      <c r="N431" s="49">
+        <v>6274</v>
+      </c>
+      <c r="O431" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q431" s="52">
+        <v>6274</v>
       </c>
       <c r="R431" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B433" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="C433" s="42">
-        <v>0.28569838039421369</v>
-      </c>
-      <c r="D433" s="43">
-        <v>44374</v>
-      </c>
-      <c r="E433" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="F433" s="45">
-        <v>0.43748702975592846</v>
-      </c>
-      <c r="G433" s="40">
-        <v>44374</v>
-      </c>
-      <c r="H433" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="I433" s="42">
-        <v>0.44443767665469402</v>
-      </c>
-      <c r="J433" s="46">
-        <v>44374</v>
-      </c>
-      <c r="K433" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="L433" s="48" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N433" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="O433" s="42">
-        <v>1</v>
-      </c>
-      <c r="Q433" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="R433" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B434" s="41">
-        <v>6274</v>
-      </c>
-      <c r="C434" s="42">
-        <v>0</v>
-      </c>
-      <c r="D434" s="43">
-        <v>44374</v>
-      </c>
-      <c r="E434" s="44">
-        <v>6274</v>
-      </c>
-      <c r="F434" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="G434" s="40">
-        <v>44374</v>
-      </c>
-      <c r="H434" s="41">
-        <v>6274</v>
-      </c>
-      <c r="I434" s="42" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J434" s="46">
-        <v>44374</v>
-      </c>
-      <c r="K434" s="47">
-        <v>6274</v>
-      </c>
-      <c r="L434" s="48">
-        <v>0</v>
-      </c>
-      <c r="N434" s="49">
-        <v>6274</v>
-      </c>
-      <c r="O434" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q434" s="52">
-        <v>6274</v>
-      </c>
-      <c r="R434" s="53">
         <v>1</v>
       </c>
     </row>
@@ -26921,7 +27023,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DE47DBC-04B8-4CF7-8E3E-27D3A4FBEEA6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02B45445-E394-4099-BFA3-C716FA3FA94E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -26940,7 +27042,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{370AE76F-76E3-422B-B5BA-DAA5D5D93D0A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6728655-953B-4DEE-9C36-6A853E3F5821}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -26948,7 +27050,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A5D5001-B3CA-4F90-B79F-A8574B21341D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B069D835-6936-4EAC-88DD-1FDBA12D20C4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
